--- a/StructureDefinition-mp4p-koerpergroesse.xlsx
+++ b/StructureDefinition-mp4p-koerpergroesse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>O@h</t>
   </si>
   <si>
     <t>Observation.value[x].comparator</t>
@@ -8764,12 +8767,12 @@
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8795,22 +8798,22 @@
         <v>168</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>303</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>80</v>
@@ -8834,10 +8837,10 @@
         <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8855,7 +8858,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8876,10 +8879,10 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8893,7 +8896,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8919,16 +8922,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>303</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8977,7 +8980,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8998,10 +9001,10 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9041,26 +9044,26 @@
         <v>134</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>80</v>
@@ -9099,7 +9102,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9108,7 +9111,7 @@
         <v>90</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>103</v>
@@ -9120,10 +9123,10 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -9137,7 +9140,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9163,23 +9166,23 @@
         <v>168</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>80</v>
@@ -9201,7 +9204,7 @@
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -9219,7 +9222,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9240,10 +9243,10 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9260,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9283,16 +9286,16 @@
         <v>243</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9320,10 +9323,10 @@
         <v>150</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>80</v>
@@ -9341,7 +9344,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9350,7 +9353,7 @@
         <v>90</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -9365,7 +9368,7 @@
         <v>104</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9379,11 +9382,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9405,16 +9408,16 @@
         <v>243</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9442,10 +9445,10 @@
         <v>150</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
@@ -9463,7 +9466,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9481,19 +9484,19 @@
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9501,7 +9504,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9524,19 +9527,19 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9585,7 +9588,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9606,10 +9609,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9623,7 +9626,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9649,13 +9652,13 @@
         <v>243</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9684,10 +9687,10 @@
         <v>158</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>80</v>
@@ -9705,7 +9708,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9723,19 +9726,19 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9743,7 +9746,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9769,16 +9772,16 @@
         <v>243</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9806,10 +9809,10 @@
         <v>158</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>80</v>
@@ -9827,7 +9830,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9848,10 +9851,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9865,7 +9868,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9888,16 +9891,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9947,7 +9950,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9965,19 +9968,19 @@
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9985,7 +9988,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10008,16 +10011,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -10067,7 +10070,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10085,19 +10088,19 @@
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10105,7 +10108,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10128,19 +10131,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -10189,7 +10192,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10201,7 +10204,7 @@
         <v>102</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>80</v>
@@ -10210,10 +10213,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10345,7 +10348,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10465,11 +10468,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10491,10 +10494,10 @@
         <v>112</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>115</v>
@@ -10549,7 +10552,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10587,7 +10590,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10610,16 +10613,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10669,7 +10672,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10678,10 +10681,10 @@
         <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>80</v>
@@ -10690,10 +10693,10 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10707,7 +10710,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10730,16 +10733,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10789,7 +10792,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10798,10 +10801,10 @@
         <v>90</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>80</v>
@@ -10810,10 +10813,10 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10827,7 +10830,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10853,16 +10856,16 @@
         <v>243</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10890,10 +10893,10 @@
         <v>172</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>80</v>
@@ -10911,7 +10914,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10929,13 +10932,13 @@
         <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10949,7 +10952,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10975,16 +10978,16 @@
         <v>243</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -11012,10 +11015,10 @@
         <v>158</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>80</v>
@@ -11033,7 +11036,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11051,13 +11054,13 @@
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -11071,7 +11074,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11094,19 +11097,19 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -11155,7 +11158,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11167,7 +11170,7 @@
         <v>102</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>80</v>
@@ -11176,10 +11179,10 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -11193,7 +11196,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11219,10 +11222,10 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>303</v>
@@ -11275,7 +11278,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11296,10 +11299,10 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11313,7 +11316,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11336,16 +11339,16 @@
         <v>91</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11395,7 +11398,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11416,10 +11419,10 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11433,7 +11436,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11456,16 +11459,16 @@
         <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11515,7 +11518,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11536,10 +11539,10 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11553,7 +11556,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11576,19 +11579,19 @@
         <v>91</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11637,7 +11640,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11649,7 +11652,7 @@
         <v>102</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>80</v>
@@ -11658,10 +11661,10 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11675,7 +11678,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11793,7 +11796,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11913,11 +11916,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11939,10 +11942,10 @@
         <v>112</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>115</v>
@@ -11997,7 +12000,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -12035,7 +12038,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12061,13 +12064,13 @@
         <v>243</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>261</v>
@@ -12119,7 +12122,7 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>90</v>
@@ -12137,7 +12140,7 @@
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>266</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12180,16 +12183,16 @@
         <v>91</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>408</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>410</v>
@@ -12239,7 +12242,7 @@
         <v>118</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12260,7 @@
         <v>80</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>414</v>
@@ -12277,7 +12280,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>417</v>
@@ -12305,13 +12308,13 @@
         <v>406</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>408</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>410</v>
@@ -12361,7 +12364,7 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12379,7 +12382,7 @@
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>414</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12517,7 +12520,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12637,7 +12640,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12759,7 +12762,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12785,22 +12788,22 @@
         <v>168</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>303</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>80</v>
@@ -12824,10 +12827,10 @@
         <v>234</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>80</v>
@@ -12845,7 +12848,7 @@
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12866,10 +12869,10 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12883,7 +12886,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12909,16 +12912,16 @@
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>303</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12967,7 +12970,7 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12988,10 +12991,10 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -13005,7 +13008,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13031,16 +13034,16 @@
         <v>134</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
@@ -13050,7 +13053,7 @@
         <v>80</v>
       </c>
       <c r="R89" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>80</v>
@@ -13089,7 +13092,7 @@
         <v>80</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -13098,7 +13101,7 @@
         <v>90</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>103</v>
@@ -13110,10 +13113,10 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -13127,7 +13130,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13153,16 +13156,16 @@
         <v>168</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
@@ -13211,7 +13214,7 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13232,10 +13235,10 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -13249,7 +13252,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13275,16 +13278,16 @@
         <v>243</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -13312,10 +13315,10 @@
         <v>150</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>80</v>
@@ -13333,7 +13336,7 @@
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13342,7 +13345,7 @@
         <v>90</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>103</v>
@@ -13357,7 +13360,7 @@
         <v>104</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -13371,11 +13374,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13397,16 +13400,16 @@
         <v>243</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -13434,10 +13437,10 @@
         <v>150</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
@@ -13455,7 +13458,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13473,19 +13476,19 @@
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>80</v>
@@ -13493,7 +13496,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13519,16 +13522,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -13577,7 +13580,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13598,10 +13601,10 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-mp4p-koerpergroesse.xlsx
+++ b/StructureDefinition-mp4p-koerpergroesse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -271,10 +271,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}vs-de-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -294,54 +290,58 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -392,10 +392,6 @@
   </si>
   <si>
     <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2339,39 +2335,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.3203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.62890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.98828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.9921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2606,19 +2602,19 @@
         <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2632,7 +2628,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2643,28 +2639,28 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2714,13 +2710,13 @@
         <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>80</v>
@@ -2752,7 +2748,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2763,25 +2759,25 @@
         <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2832,31 +2828,31 @@
         <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2870,7 +2866,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2881,7 +2877,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
@@ -2893,7 +2889,7 @@
         <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>106</v>
@@ -2956,7 +2952,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>80</v>
@@ -3119,28 +3115,28 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3190,19 +3186,19 @@
         <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>80</v>
@@ -3228,7 +3224,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3239,28 +3235,28 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3310,19 +3306,19 @@
         <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>80</v>
@@ -3348,7 +3344,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3359,28 +3355,28 @@
         <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3430,19 +3426,19 @@
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>80</v>
@@ -3468,7 +3464,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3482,25 +3478,25 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3550,7 +3546,7 @@
         <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>78</v>
@@ -3562,7 +3558,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>80</v>
@@ -3588,7 +3584,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3608,19 +3604,19 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3646,31 +3642,31 @@
         <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>78</v>
@@ -3682,7 +3678,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>80</v>
@@ -3708,7 +3704,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3728,19 +3724,19 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3766,31 +3762,31 @@
         <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>78</v>
@@ -3802,7 +3798,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>80</v>
@@ -3828,7 +3824,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3839,28 +3835,28 @@
         <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3910,19 +3906,19 @@
         <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>80</v>
@@ -3948,7 +3944,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3959,11 +3955,11 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3971,16 +3967,16 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4006,43 +4002,43 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>80</v>
@@ -4068,18 +4064,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
@@ -4091,16 +4087,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4150,31 +4146,31 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4188,11 +4184,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4211,16 +4207,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4270,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4294,7 +4290,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4308,7 +4304,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4337,7 +4333,7 @@
         <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>115</v>
@@ -4390,7 +4386,7 @@
         <v>118</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4399,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>120</v>
@@ -4414,7 +4410,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4428,7 +4424,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4445,7 +4441,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4454,16 +4450,16 @@
         <v>112</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>115</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4512,7 +4508,7 @@
         <v>118</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4521,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>120</v>
@@ -4536,7 +4532,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4550,7 +4546,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4570,20 +4566,20 @@
         <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4632,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4641,25 +4637,25 @@
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI19" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4670,11 +4666,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4690,22 +4686,22 @@
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4754,7 +4750,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4763,22 +4759,22 @@
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4792,11 +4788,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4812,19 +4808,19 @@
         <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4874,7 +4870,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4883,22 +4879,22 @@
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4912,7 +4908,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4920,110 +4916,110 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="I22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5034,7 +5030,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5042,7 +5038,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>79</v>
@@ -5057,19 +5053,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -5094,19 +5090,19 @@
         <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
@@ -5116,7 +5112,7 @@
         <v>118</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5125,11 +5121,11 @@
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI23" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5137,13 +5133,13 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5154,20 +5150,20 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>80</v>
@@ -5179,19 +5175,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5201,7 +5197,7 @@
         <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -5216,14 +5212,14 @@
         <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5240,7 +5236,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5249,11 +5245,11 @@
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI24" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5261,13 +5257,13 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5278,42 +5274,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5338,61 +5334,61 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -5400,7 +5396,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5411,7 +5407,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>80</v>
@@ -5423,7 +5419,7 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>106</v>
@@ -5486,7 +5482,7 @@
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>80</v>
@@ -5518,7 +5514,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5609,7 +5605,7 @@
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>120</v>
@@ -5624,7 +5620,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5638,7 +5634,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5646,34 +5642,34 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>80</v>
@@ -5710,7 +5706,7 @@
         <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5720,7 +5716,7 @@
         <v>118</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5729,11 +5725,11 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI28" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5741,10 +5737,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5758,44 +5754,44 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5805,7 +5801,7 @@
         <v>80</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>80</v>
@@ -5820,11 +5816,11 @@
         <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>80</v>
@@ -5842,7 +5838,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5851,11 +5847,11 @@
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5863,10 +5859,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5880,7 +5876,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5891,7 +5887,7 @@
         <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -5903,7 +5899,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>106</v>
@@ -5966,7 +5962,7 @@
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>80</v>
@@ -5998,7 +5994,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6089,7 +6085,7 @@
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>120</v>
@@ -6104,7 +6100,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6118,7 +6114,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6126,34 +6122,34 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>80</v>
@@ -6202,31 +6198,31 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6240,7 +6236,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6251,28 +6247,28 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6322,31 +6318,31 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6360,7 +6356,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6368,34 +6364,34 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6444,31 +6440,31 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6482,7 +6478,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6493,31 +6489,31 @@
         <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6566,31 +6562,31 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6604,7 +6600,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6615,31 +6611,31 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6688,31 +6684,31 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6726,7 +6722,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6737,31 +6733,31 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>80</v>
@@ -6810,31 +6806,31 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6848,7 +6844,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6856,34 +6852,34 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6932,34 +6928,34 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6966,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6990,19 +6986,19 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -7052,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7061,10 +7057,10 @@
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>80</v>
@@ -7073,13 +7069,13 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7090,42 +7086,42 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>80</v>
@@ -7174,34 +7170,34 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7212,42 +7208,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7284,44 +7280,44 @@
         <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AE41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7332,44 +7328,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>80</v>
@@ -7418,34 +7414,34 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7456,7 +7452,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7467,7 +7463,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>80</v>
@@ -7479,13 +7475,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7542,7 +7538,7 @@
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>80</v>
@@ -7574,7 +7570,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7600,10 +7596,10 @@
         <v>112</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7690,10 +7686,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>80</v>
@@ -7703,11 +7699,11 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7715,13 +7711,13 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7781,7 +7777,7 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>120</v>
@@ -7796,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7810,7 +7806,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7821,7 +7817,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>80</v>
@@ -7833,13 +7829,13 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7890,13 +7886,13 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>80</v>
@@ -7928,7 +7924,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7939,28 +7935,28 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -8010,20 +8006,20 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI47" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI47" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8031,13 +8027,13 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8048,7 +8044,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8068,22 +8064,22 @@
         <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -8132,7 +8128,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8141,25 +8137,25 @@
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8170,7 +8166,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8178,34 +8174,34 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -8242,47 +8238,47 @@
         <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AI49" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8290,44 +8286,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8352,11 +8348,11 @@
         <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>80</v>
@@ -8374,37 +8370,37 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AI50" t="s" s="2">
+      <c r="AJ50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8412,7 +8408,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8423,7 +8419,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>80</v>
@@ -8435,7 +8431,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>106</v>
@@ -8498,7 +8494,7 @@
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>80</v>
@@ -8530,7 +8526,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8621,7 +8617,7 @@
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>120</v>
@@ -8636,7 +8632,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8650,7 +8646,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8658,34 +8654,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>80</v>
@@ -8734,45 +8730,45 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8783,106 +8779,106 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P54" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P54" t="s" s="2">
+      <c r="Q54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="X54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X54" t="s" s="2">
+      <c r="Y54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8896,7 +8892,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8904,34 +8900,34 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8980,31 +8976,31 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -9018,7 +9014,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9026,107 +9022,107 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="R56" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH56" t="s" s="2">
+      <c r="AI56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -9140,7 +9136,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9148,41 +9144,41 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>80</v>
@@ -9200,53 +9196,53 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9260,7 +9256,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9283,19 +9279,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9320,55 +9316,55 @@
         <v>80</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH58" t="s" s="2">
+      <c r="AI58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9382,11 +9378,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9405,19 +9401,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9442,14 +9438,14 @@
         <v>80</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9466,7 +9462,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9475,28 +9471,28 @@
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI59" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9504,7 +9500,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9527,19 +9523,19 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9588,7 +9584,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9597,11 +9593,11 @@
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI60" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9609,10 +9605,10 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9626,7 +9622,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9649,16 +9645,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9684,61 +9680,61 @@
         <v>80</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9746,7 +9742,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9757,7 +9753,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>80</v>
@@ -9769,19 +9765,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>80</v>
@@ -9806,55 +9802,55 @@
         <v>80</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9868,7 +9864,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9891,16 +9887,16 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9950,37 +9946,37 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9988,7 +9984,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9999,7 +9995,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>80</v>
@@ -10011,16 +10007,16 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -10070,37 +10066,37 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -10108,7 +10104,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10131,19 +10127,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>80</v>
@@ -10192,7 +10188,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10201,22 +10197,22 @@
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10230,7 +10226,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10241,7 +10237,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -10253,7 +10249,7 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>106</v>
@@ -10316,7 +10312,7 @@
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>80</v>
@@ -10348,7 +10344,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10439,7 +10435,7 @@
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>120</v>
@@ -10454,7 +10450,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10468,11 +10464,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10485,25 +10481,25 @@
         <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>112</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>115</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10552,7 +10548,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10561,7 +10557,7 @@
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>120</v>
@@ -10576,7 +10572,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10590,7 +10586,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10601,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>80</v>
@@ -10613,16 +10609,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10672,31 +10668,31 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AI69" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10710,7 +10706,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10721,7 +10717,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>80</v>
@@ -10733,16 +10729,16 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10792,31 +10788,31 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AI70" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AJ70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>555</v>
-      </c>
       <c r="AM70" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10830,7 +10826,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10841,7 +10837,7 @@
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>80</v>
@@ -10853,19 +10849,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10890,55 +10886,55 @@
         <v>80</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AL71" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10952,7 +10948,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10975,19 +10971,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>80</v>
@@ -11012,14 +11008,14 @@
         <v>80</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11036,7 +11032,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11045,22 +11041,22 @@
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI72" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -11074,7 +11070,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11085,7 +11081,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>80</v>
@@ -11097,19 +11093,19 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>80</v>
@@ -11158,31 +11154,31 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -11196,7 +11192,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11207,7 +11203,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>80</v>
@@ -11219,16 +11215,16 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11278,20 +11274,20 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI74" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI74" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11299,10 +11295,10 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11316,7 +11312,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11336,19 +11332,19 @@
         <v>80</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -11398,7 +11394,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11407,10 +11403,10 @@
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>80</v>
@@ -11419,10 +11415,10 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11436,7 +11432,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11456,19 +11452,19 @@
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11518,7 +11514,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11527,10 +11523,10 @@
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>80</v>
@@ -11539,10 +11535,10 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11556,7 +11552,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11576,22 +11572,22 @@
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>80</v>
@@ -11640,7 +11636,7 @@
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11649,22 +11645,22 @@
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11678,7 +11674,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11689,7 +11685,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>80</v>
@@ -11701,7 +11697,7 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>106</v>
@@ -11764,7 +11760,7 @@
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>80</v>
@@ -11796,7 +11792,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11887,7 +11883,7 @@
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>120</v>
@@ -11902,7 +11898,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11916,11 +11912,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11933,25 +11929,25 @@
         <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>112</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>115</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>80</v>
@@ -12000,7 +11996,7 @@
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -12009,7 +12005,7 @@
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>120</v>
@@ -12024,7 +12020,7 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -12038,7 +12034,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12046,34 +12042,34 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F81" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="M81" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="N81" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>80</v>
@@ -12098,14 +12094,14 @@
         <v>80</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y81" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12122,34 +12118,34 @@
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH81" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI81" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12160,7 +12156,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12171,31 +12167,31 @@
         <v>78</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J82" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>80</v>
@@ -12232,7 +12228,7 @@
         <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AB82" s="2"/>
       <c r="AC82" t="s" s="2">
@@ -12242,37 +12238,37 @@
         <v>118</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -12280,10 +12276,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>80</v>
@@ -12293,31 +12289,31 @@
         <v>78</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>80</v>
@@ -12342,11 +12338,11 @@
         <v>80</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>80</v>
@@ -12364,37 +12360,37 @@
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>80</v>
@@ -12402,7 +12398,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12413,7 +12409,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>80</v>
@@ -12425,7 +12421,7 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>106</v>
@@ -12488,7 +12484,7 @@
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>80</v>
@@ -12520,7 +12516,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12611,7 +12607,7 @@
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>120</v>
@@ -12626,7 +12622,7 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12640,7 +12636,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12648,34 +12644,34 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J86" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>80</v>
@@ -12724,31 +12720,31 @@
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12762,7 +12758,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12773,106 +12769,106 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="I87" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P87" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="O87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P87" t="s" s="2">
+      <c r="Q87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="X87" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Q87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X87" t="s" s="2">
+      <c r="Y87" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AF87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12886,7 +12882,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12894,34 +12890,34 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>80</v>
@@ -12970,31 +12966,31 @@
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -13008,7 +13004,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13016,34 +13012,34 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>80</v>
@@ -13053,70 +13049,70 @@
         <v>80</v>
       </c>
       <c r="R89" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="S89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH89" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AF89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH89" t="s" s="2">
+      <c r="AI89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -13130,7 +13126,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13138,34 +13134,34 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="F90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="J90" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>80</v>
@@ -13214,31 +13210,31 @@
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -13252,7 +13248,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13263,7 +13259,7 @@
         <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>80</v>
@@ -13275,19 +13271,19 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>634</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>80</v>
@@ -13312,55 +13308,55 @@
         <v>80</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH91" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH91" t="s" s="2">
+      <c r="AI91" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -13374,11 +13370,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13397,19 +13393,19 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>80</v>
@@ -13434,14 +13430,14 @@
         <v>80</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v>80</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13467,28 +13463,28 @@
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AI92" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AJ92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>80</v>
@@ -13496,7 +13492,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13522,16 +13518,16 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>638</v>
-      </c>
       <c r="M93" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>80</v>
@@ -13580,7 +13576,7 @@
         <v>80</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13601,10 +13597,10 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
